--- a/M3_AZN/DIAMONDS_LOOKUP.xlsx
+++ b/M3_AZN/DIAMONDS_LOOKUP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEBA69DF-3AEF-4CE5-9342-5821C96EC221}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E450D7B-413A-4F1F-8BF8-D28E31B3F394}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{3D109AFB-7A0C-486F-A81D-E227F172FEEF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{3D109AFB-7A0C-486F-A81D-E227F172FEEF}"/>
   </bookViews>
   <sheets>
     <sheet name="CLARITY_LOOKUP" sheetId="1" r:id="rId1"/>
@@ -26,14 +26,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>FL</t>
   </si>
   <si>
-    <t>LABEL</t>
-  </si>
-  <si>
     <t>FLAWLESS</t>
   </si>
   <si>
@@ -85,9 +82,6 @@
     <t>INCLUDED</t>
   </si>
   <si>
-    <t>VISUAL_ORDER</t>
-  </si>
-  <si>
     <t>COLOUR_CODE</t>
   </si>
   <si>
@@ -119,6 +113,18 @@
   </si>
   <si>
     <t>NEAR COLOURLESS</t>
+  </si>
+  <si>
+    <t>CLARITY_LABEL</t>
+  </si>
+  <si>
+    <t>COLOUR_LABEL</t>
+  </si>
+  <si>
+    <t>VISUAL_ORDER_COLOUR</t>
+  </si>
+  <si>
+    <t>VISUAL_ORDER_CLARITY</t>
   </si>
 </sst>
 </file>
@@ -472,26 +478,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{919B97CF-2A85-49E9-A8DA-FF539BD9E61F}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.140625" customWidth="1"/>
     <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -499,7 +505,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -507,10 +513,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -518,10 +524,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -529,10 +535,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -540,10 +546,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -551,10 +557,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -562,10 +568,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -573,10 +579,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -584,10 +590,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -595,10 +601,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -606,10 +612,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -617,10 +623,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -635,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB1B959-7BCC-438A-859D-51B21E595C43}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,21 +654,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -670,10 +676,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -681,10 +687,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -692,10 +698,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -703,10 +709,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -714,10 +720,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -725,10 +731,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
         <v>28</v>
-      </c>
-      <c r="B8" t="s">
-        <v>30</v>
       </c>
       <c r="C8">
         <v>7</v>
